--- a/Surat Jalan/SEA/Surat Jalan PRIMA-ID-SEA F1246 68 Koli.xlsx
+++ b/Surat Jalan/SEA/Surat Jalan PRIMA-ID-SEA F1246 68 Koli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Surat Jalan\SEA\Updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0933E58-3366-49B1-A247-A1081CB6E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458FFB7C-1681-4AE2-8AB6-0D96C244B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>SURAT JALAN</t>
   </si>
@@ -127,13 +127,16 @@
     <t>Telepon</t>
   </si>
   <si>
-    <t>PRIMA-ID-SEA</t>
-  </si>
-  <si>
-    <t>Barang elektronik</t>
-  </si>
-  <si>
     <t>F1246</t>
+  </si>
+  <si>
+    <t>279-PRIMA-ID-SEA</t>
+  </si>
+  <si>
+    <t>250215PRIMA-ID</t>
+  </si>
+  <si>
+    <t>S0081983  Barang elektronik</t>
   </si>
 </sst>
 </file>
@@ -876,7 +879,7 @@
   <dimension ref="B1:P54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -920,7 +923,9 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="K2" t="s">
@@ -986,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1046,7 +1051,7 @@
     </row>
     <row r="11" spans="2:16" ht="15.75">
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="29">
@@ -1057,7 +1062,7 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -1265,7 +1270,7 @@
       </c>
       <c r="C30" s="15" t="str">
         <f>IF(ISBLANK(C2),"",C2)</f>
-        <v/>
+        <v>250215PRIMA-ID</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -1355,7 +1360,7 @@
       </c>
       <c r="C35" s="53" t="str">
         <f>IF(ISBLANK(C7),"",C7)</f>
-        <v>PRIMA-ID-SEA</v>
+        <v>279-PRIMA-ID-SEA</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -1434,7 +1439,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="29" t="str">
         <f>IF(ISBLANK(G11),"",G11)</f>
-        <v>Barang elektronik</v>
+        <v>S0081983  Barang elektronik</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
